--- a/08-11-24 to 08-17-24 Milwaukee Schedule Copy.xlsx
+++ b/08-11-24 to 08-17-24 Milwaukee Schedule Copy.xlsx
@@ -3839,7 +3839,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t xml:space="preserve">*SALE INVENTORY </t>
+          <t xml:space="preserve">EXCEL FINANCIAL </t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -3870,7 +3870,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t xml:space="preserve">EXCEL FINANCIAL </t>
+          <t>JUNEAU 26 SHELL</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -3901,7 +3901,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t>JUNEAU 26 SHELL</t>
+          <t>470 N MAIN ST</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -3932,7 +3932,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>470 N MAIN ST</t>
+          <t>https://maps.app.goo.gl/z1wVUcFVhcv7X17o7</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -3963,7 +3963,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/z1wVUcFVhcv7X17o7</t>
+          <t xml:space="preserve">*SALE INVENTORY </t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>

--- a/08-11-24 to 08-17-24 Milwaukee Schedule Copy.xlsx
+++ b/08-11-24 to 08-17-24 Milwaukee Schedule Copy.xlsx
@@ -540,23 +540,43 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -571,11 +591,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -583,7 +611,11 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
@@ -602,11 +634,19 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
